--- a/cagrid-1-0/Documentation/management/osu/security-vision-scope.xlsx
+++ b/cagrid-1-0/Documentation/management/osu/security-vision-scope.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="21240" windowHeight="14535"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="19440" windowHeight="14535"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="48">
   <si>
     <t>Release</t>
   </si>
@@ -123,9 +123,6 @@
     <t>Develop UI for creating and managing sync descriptions and syncing with the trust fabric</t>
   </si>
   <si>
-    <t>Support mechanism for disabling the SyncGTS cache.</t>
-  </si>
-  <si>
     <t>Add bootstrapping method to Dorian for unlocking keys</t>
   </si>
   <si>
@@ -151,6 +148,18 @@
   </si>
   <si>
     <t>caGrid Training Program</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Assign Meaningful IdP names in Grid Identities</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Support mechanism for managing the size of  the SyncGTS cache.</t>
   </si>
 </sst>
 </file>
@@ -181,12 +190,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="16"/>
       <color theme="0"/>
@@ -195,8 +198,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -215,7 +225,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -482,76 +492,152 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
@@ -847,536 +933,588 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="6" max="6" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="103.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="103.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" thickBot="1">
+      <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A2" s="10" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:8" ht="30" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A3" s="3">
+    <row r="3" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A3" s="5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5" t="s">
+      <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6">
+        <v>4724</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="7">
+        <v>20</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A4" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="12">
+        <v>10</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A5" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11">
+        <v>4725</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="12">
+        <v>5</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A6" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="12">
+        <v>2</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A7" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="12">
+        <v>1</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A8" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="12">
+        <v>2</v>
+      </c>
+      <c r="G8" s="13"/>
+      <c r="H8" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A9" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="12">
+        <v>10</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A10" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11">
+        <v>4726</v>
+      </c>
+      <c r="E10" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="5">
-        <v>20</v>
-      </c>
-      <c r="G3" s="26" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A4" s="16">
+      <c r="F10" s="12">
+        <v>5</v>
+      </c>
+      <c r="G10" s="13"/>
+      <c r="H10" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A11" s="10">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="18" t="s">
+      <c r="B11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F11" s="12">
         <v>10</v>
       </c>
-      <c r="G4" s="27" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A5" s="16">
+      <c r="G11" s="13"/>
+      <c r="H11" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A12" s="10">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="18" t="s">
+      <c r="B12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11">
+        <v>4723</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F12" s="12">
+        <v>2</v>
+      </c>
+      <c r="G12" s="13"/>
+      <c r="H12" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A13" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="16">
+        <v>4094</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="16">
+        <v>1</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="14"/>
+    </row>
+    <row r="15" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11">
+        <v>4728</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="12">
+        <v>40</v>
+      </c>
+      <c r="G15" s="13"/>
+      <c r="H15" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A16" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="12">
+        <v>30</v>
+      </c>
+      <c r="G16" s="13"/>
+      <c r="H16" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A17" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="12">
+        <v>10</v>
+      </c>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A18" s="10"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="14"/>
+    </row>
+    <row r="19" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A19" s="10">
+        <v>2</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="12">
         <v>5</v>
       </c>
-      <c r="G5" s="27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A6" s="16">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18" t="s">
+      <c r="G19" s="13"/>
+      <c r="H19" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="36" customHeight="1" thickBot="1">
+      <c r="A20" s="15">
+        <v>2</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="16">
         <v>10</v>
       </c>
-      <c r="F6" s="18">
+      <c r="G20" s="18"/>
+      <c r="H20" s="20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A21" s="15">
         <v>2</v>
       </c>
-      <c r="G6" s="27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A7" s="16">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="18" t="s">
+      <c r="B21" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="17"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="18">
-        <v>1</v>
-      </c>
-      <c r="G7" s="27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A8" s="16">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="18">
+      <c r="F21" s="16">
+        <v>30</v>
+      </c>
+      <c r="G21" s="18"/>
+      <c r="H21" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A22" s="15">
         <v>2</v>
       </c>
-      <c r="G8" s="27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A9" s="16">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="18" t="s">
+      <c r="B22" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="16">
+        <v>4727</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="16">
+        <v>5</v>
+      </c>
+      <c r="G22" s="18"/>
+      <c r="H22" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A23" s="15">
+        <v>2</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="17"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="16">
+        <v>5</v>
+      </c>
+      <c r="G23" s="18"/>
+      <c r="H23" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A24" s="15">
+        <v>2</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="17"/>
+      <c r="D24" s="16">
+        <v>4729</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F24" s="16">
+        <v>2</v>
+      </c>
+      <c r="G24" s="18"/>
+      <c r="H24" s="19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A25" s="15">
+        <v>2</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="17"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="16">
         <v>5</v>
       </c>
-      <c r="G9" s="27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A10" s="16">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="18">
-        <v>5</v>
-      </c>
-      <c r="G10" s="27" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A11" s="16">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="18">
-        <v>10</v>
-      </c>
-      <c r="G11" s="27" t="s">
+      <c r="G25" s="18"/>
+      <c r="H25" s="19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A12" s="16"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="27"/>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A13" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="18">
+    <row r="26" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A26" s="15">
+        <v>2</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="17"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="18"/>
+      <c r="H26" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A14" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="18" t="s">
+    </row>
+    <row r="27" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A27" s="15">
+        <v>2</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="17"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="18">
-        <v>30</v>
-      </c>
-      <c r="G14" s="27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A15" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="18">
-        <v>10</v>
-      </c>
-      <c r="G15" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A16" s="16"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="27"/>
-    </row>
-    <row r="17" spans="1:7" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A17" s="16">
-        <v>2</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="18">
-        <v>5</v>
-      </c>
-      <c r="G17" s="27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A18" s="11">
-        <v>2</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="14">
-        <v>10</v>
-      </c>
-      <c r="G18" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A19" s="11">
-        <v>2</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="14">
-        <v>30</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A20" s="11">
-        <v>2</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="14">
-        <v>5</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A21" s="11">
-        <v>2</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="14">
-        <v>1</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A22" s="11">
-        <v>2</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="14">
-        <v>5</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A23" s="11">
-        <v>2</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="14">
-        <v>2</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A24" s="11">
-        <v>2</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="14">
-        <v>5</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A25" s="11">
-        <v>2</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" s="14" t="s">
+      <c r="F27" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G27" s="18"/>
+      <c r="H27" s="19" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A26" s="11">
-        <v>2</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" s="14" t="s">
+    <row r="28" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A28" s="15"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="19"/>
+    </row>
+    <row r="29" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A29" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="17"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F29" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A27" s="11"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="7"/>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A28" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="14" t="s">
+      <c r="G29" s="18"/>
+      <c r="H29" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F28" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A29" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="32.25" customHeight="1" thickBot="1">
+    </row>
+    <row r="30" spans="1:8" ht="16.5" thickBot="1">
       <c r="A30" s="21" t="s">
         <v>15</v>
       </c>
@@ -1384,57 +1522,80 @@
         <v>7</v>
       </c>
       <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="19" t="s">
+      <c r="D30" s="16"/>
+      <c r="E30" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F30" s="19" t="s">
+      <c r="F30" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G30" s="24" t="s">
+      <c r="G30" s="18"/>
+      <c r="H30" s="19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="32.25" customHeight="1" thickBot="1">
+      <c r="A31" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="24"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="26"/>
+      <c r="H31" s="27" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A31" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" s="19"/>
-      <c r="G31" s="24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="15.75" thickBot="1">
+    <row r="32" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
       <c r="A32" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="15" t="s">
+      <c r="B32" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="24"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F32" s="15" t="s">
+      <c r="F32" s="25"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A33" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="29"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="G32" s="8" t="s">
+      <c r="G33" s="31"/>
+      <c r="H33" s="32" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" ht="15.75" thickTop="1"/>
+    <row r="34" spans="1:8" ht="15.75" thickTop="1"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/cagrid-1-0/Documentation/management/osu/security-vision-scope.xlsx
+++ b/cagrid-1-0/Documentation/management/osu/security-vision-scope.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="52">
   <si>
     <t>Release</t>
   </si>
@@ -160,6 +160,18 @@
   </si>
   <si>
     <t>Support mechanism for managing the size of  the SyncGTS cache.</t>
+  </si>
+  <si>
+    <t>internal/Imaging</t>
+  </si>
+  <si>
+    <t>SWG</t>
+  </si>
+  <si>
+    <t>Update Introduce authorization components (gridgrouper,  csm, etc) to new authorization support</t>
+  </si>
+  <si>
+    <t>Add authorization configuration support in Introduce to Resources (needed for stateful services, such as FQP, workflow, BDT, etc)</t>
   </si>
 </sst>
 </file>
@@ -563,15 +575,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -638,6 +641,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
@@ -933,10 +945,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H34"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -947,16 +962,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="4"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="32"/>
     </row>
     <row r="2" spans="1:8" ht="30" customHeight="1" thickTop="1" thickBot="1">
       <c r="A2" s="1" t="s">
@@ -985,620 +1000,660 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A3" s="5">
+      <c r="A3" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6">
+      <c r="B3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3">
         <v>4724</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="4">
         <v>20</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9" t="s">
+      <c r="G3" s="5"/>
+      <c r="H3" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A4" s="10">
+      <c r="A4" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12" t="s">
+      <c r="B4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="9">
         <v>10</v>
       </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="14" t="s">
+      <c r="G4" s="10"/>
+      <c r="H4" s="11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A5" s="10">
+      <c r="A5" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11">
+      <c r="B5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8">
         <v>4725</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="9">
         <v>5</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="14" t="s">
+      <c r="G5" s="10"/>
+      <c r="H5" s="11" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A6" s="10">
+      <c r="A6" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12" t="s">
+      <c r="B6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="9">
         <v>2</v>
       </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="14" t="s">
+      <c r="G6" s="10"/>
+      <c r="H6" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A7" s="10">
+      <c r="A7" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12" t="s">
+      <c r="B7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="9">
         <v>1</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A8" s="10">
+      <c r="A8" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12" t="s">
+      <c r="B8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="9">
         <v>2</v>
       </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="14" t="s">
+      <c r="G8" s="10"/>
+      <c r="H8" s="11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A9" s="10">
+      <c r="A9" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12" t="s">
+      <c r="B9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="9">
         <v>10</v>
       </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14" t="s">
+      <c r="G9" s="10"/>
+      <c r="H9" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A10" s="10">
+      <c r="A10" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11">
+      <c r="B10" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8">
         <v>4726</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="9">
         <v>5</v>
       </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="14" t="s">
+      <c r="G10" s="10"/>
+      <c r="H10" s="11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A11" s="10">
+      <c r="A11" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="12" t="s">
+      <c r="B11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="9">
         <v>10</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="14" t="s">
+      <c r="G11" s="10"/>
+      <c r="H11" s="11" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A12" s="10">
+      <c r="A12" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11">
+      <c r="B12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8">
         <v>4723</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="9">
         <v>2</v>
       </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="14" t="s">
+      <c r="G12" s="10"/>
+      <c r="H12" s="11" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A13" s="15">
+      <c r="A13" s="12">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B13" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="16">
+      <c r="B13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="13">
         <v>4094</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="13">
         <v>1</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="19" t="s">
+      <c r="H13" s="16" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="14"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11">
+      <c r="B15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8">
         <v>4728</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="9">
         <v>40</v>
       </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="14" t="s">
+      <c r="G15" s="10"/>
+      <c r="H15" s="11" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="12" t="s">
+      <c r="B16" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="9">
         <v>30</v>
       </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="14" t="s">
+      <c r="G16" s="10"/>
+      <c r="H16" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="12" t="s">
+      <c r="B17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="9">
         <v>10</v>
       </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14" t="s">
+      <c r="G17" s="10"/>
+      <c r="H17" s="11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="14"/>
-    </row>
-    <row r="19" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A19" s="10">
+      <c r="A18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="11"/>
+    </row>
+    <row r="19" spans="1:8" ht="15" customHeight="1" thickBot="1">
+      <c r="A19" s="7">
         <v>2</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="12" t="s">
+      <c r="B19" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="9">
         <v>10</v>
       </c>
-      <c r="F19" s="12">
+      <c r="G19" s="10"/>
+      <c r="H19" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" customHeight="1" thickBot="1">
+      <c r="A20" s="7">
+        <v>2</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="9">
+        <v>20</v>
+      </c>
+      <c r="G20" s="10"/>
+      <c r="H20" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A21" s="7">
+        <v>2</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="9">
         <v>5</v>
       </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="14" t="s">
+      <c r="G21" s="10"/>
+      <c r="H21" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="36" customHeight="1" thickBot="1">
-      <c r="A20" s="15">
+    <row r="22" spans="1:8" ht="36" customHeight="1" thickBot="1">
+      <c r="A22" s="12">
         <v>2</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B22" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16" t="s">
+      <c r="C22" s="14"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F22" s="13">
         <v>10</v>
       </c>
-      <c r="G20" s="18"/>
-      <c r="H20" s="20" t="s">
+      <c r="G22" s="15"/>
+      <c r="H22" s="17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A21" s="15">
+    <row r="23" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A23" s="12">
         <v>2</v>
       </c>
-      <c r="B21" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16" t="s">
+      <c r="B23" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="14"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F23" s="13">
         <v>30</v>
       </c>
-      <c r="G21" s="18"/>
-      <c r="H21" s="19" t="s">
+      <c r="G23" s="15"/>
+      <c r="H23" s="16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A22" s="15">
+    <row r="24" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A24" s="12">
         <v>2</v>
       </c>
-      <c r="B22" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="16">
+      <c r="B24" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="13">
         <v>4727</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E24" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F24" s="13">
         <v>5</v>
       </c>
-      <c r="G22" s="18"/>
-      <c r="H22" s="19" t="s">
+      <c r="G24" s="15"/>
+      <c r="H24" s="16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A23" s="15">
+    <row r="25" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A25" s="12">
         <v>2</v>
       </c>
-      <c r="B23" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16" t="s">
+      <c r="B25" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F25" s="13">
         <v>5</v>
       </c>
-      <c r="G23" s="18"/>
-      <c r="H23" s="19" t="s">
+      <c r="G25" s="15"/>
+      <c r="H25" s="16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A24" s="15">
+    <row r="26" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A26" s="12">
         <v>2</v>
       </c>
-      <c r="B24" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="16">
+      <c r="B26" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="13">
         <v>4729</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E26" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F26" s="13">
         <v>2</v>
       </c>
-      <c r="G24" s="18"/>
-      <c r="H24" s="19" t="s">
+      <c r="G26" s="15"/>
+      <c r="H26" s="16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A25" s="15">
+    <row r="27" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A27" s="12">
         <v>2</v>
       </c>
-      <c r="B25" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16" t="s">
+      <c r="B27" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="14"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F25" s="16">
+      <c r="F27" s="13">
         <v>5</v>
       </c>
-      <c r="G25" s="18"/>
-      <c r="H25" s="19" t="s">
+      <c r="G27" s="15"/>
+      <c r="H27" s="16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A26" s="15">
+    <row r="28" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A28" s="12">
         <v>2</v>
       </c>
-      <c r="B26" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16" t="s">
+      <c r="B28" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F26" s="16" t="s">
+      <c r="F28" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="18"/>
-      <c r="H26" s="19" t="s">
+      <c r="G28" s="15"/>
+      <c r="H28" s="16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A27" s="15">
+    <row r="29" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A29" s="12">
         <v>2</v>
       </c>
-      <c r="B27" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16" t="s">
+      <c r="B29" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F27" s="16" t="s">
+      <c r="F29" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G27" s="18"/>
-      <c r="H27" s="19" t="s">
+      <c r="G29" s="15"/>
+      <c r="H29" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A28" s="15"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="19"/>
-    </row>
-    <row r="29" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A29" s="15" t="s">
+    <row r="30" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A30" s="12"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="16"/>
+    </row>
+    <row r="31" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A31" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16" t="s">
+      <c r="B31" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F29" s="16" t="s">
+      <c r="F31" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G29" s="18"/>
-      <c r="H29" s="19" t="s">
+      <c r="G31" s="15"/>
+      <c r="H31" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A30" s="21" t="s">
+    <row r="32" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A32" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16" t="s">
+      <c r="B32" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="19"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F30" s="16" t="s">
+      <c r="F32" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G30" s="18"/>
-      <c r="H30" s="19" t="s">
+      <c r="G32" s="15"/>
+      <c r="H32" s="16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A31" s="23" t="s">
+    <row r="33" spans="1:8" ht="32.25" customHeight="1" thickBot="1">
+      <c r="A33" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="24"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25" t="s">
+      <c r="B33" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="21"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F31" s="25" t="s">
+      <c r="F33" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="G31" s="26"/>
-      <c r="H31" s="27" t="s">
+      <c r="G33" s="23"/>
+      <c r="H33" s="24" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A32" s="23" t="s">
+    <row r="34" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A34" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="24"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25" t="s">
+      <c r="B34" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="21"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F32" s="25"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="27" t="s">
+      <c r="F34" s="22"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="24" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A33" s="28" t="s">
+    <row r="35" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A35" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="29"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30" t="s">
+      <c r="B35" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="26"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="F33" s="30" t="s">
+      <c r="F35" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="31"/>
-      <c r="H33" s="32" t="s">
+      <c r="G35" s="28"/>
+      <c r="H35" s="29" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15.75" thickTop="1"/>
+    <row r="36" spans="1:8" ht="15.75" thickTop="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="70" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/cagrid-1-0/Documentation/management/osu/security-vision-scope.xlsx
+++ b/cagrid-1-0/Documentation/management/osu/security-vision-scope.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="55">
   <si>
     <t>Release</t>
   </si>
@@ -172,6 +172,15 @@
   </si>
   <si>
     <t>Add authorization configuration support in Introduce to Resources (needed for stateful services, such as FQP, workflow, BDT, etc)</t>
+  </si>
+  <si>
+    <t>1.1/2.0</t>
+  </si>
+  <si>
+    <t>Yale</t>
+  </si>
+  <si>
+    <t>Implement a CAS plugin for the Authentication Service.</t>
   </si>
 </sst>
 </file>
@@ -948,10 +957,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1305,35 +1314,37 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
+    <row r="18" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A18" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>53</v>
+      </c>
       <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
+      <c r="D18" s="8">
+        <v>5368</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="9">
+        <v>5</v>
+      </c>
       <c r="G18" s="10"/>
-      <c r="H18" s="11"/>
-    </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A19" s="7">
-        <v>2</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="H18" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
-      <c r="E19" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="9">
-        <v>10</v>
-      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
       <c r="G19" s="10"/>
-      <c r="H19" s="11" t="s">
-        <v>50</v>
-      </c>
+      <c r="H19" s="11"/>
     </row>
     <row r="20" spans="1:8" ht="15" customHeight="1" thickBot="1">
       <c r="A20" s="7">
@@ -1348,14 +1359,14 @@
         <v>8</v>
       </c>
       <c r="F20" s="9">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G20" s="10"/>
       <c r="H20" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15" customHeight="1" thickBot="1">
       <c r="A21" s="7">
         <v>2</v>
       </c>
@@ -1365,54 +1376,54 @@
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F21" s="9">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A22" s="7">
+        <v>2</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="9">
+        <v>5</v>
+      </c>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="36" customHeight="1" thickBot="1">
-      <c r="A22" s="12">
-        <v>2</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="13">
-        <v>10</v>
-      </c>
-      <c r="G22" s="15"/>
-      <c r="H22" s="17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="16.5" thickBot="1">
+    <row r="23" spans="1:8" ht="36" customHeight="1" thickBot="1">
       <c r="A23" s="12">
         <v>2</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="13">
         <v>10</v>
       </c>
-      <c r="F23" s="13">
-        <v>30</v>
-      </c>
       <c r="G23" s="15"/>
-      <c r="H23" s="16" t="s">
-        <v>24</v>
+      <c r="H23" s="17" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="16.5" thickBot="1">
@@ -1423,18 +1434,16 @@
         <v>7</v>
       </c>
       <c r="C24" s="14"/>
-      <c r="D24" s="13">
-        <v>4727</v>
-      </c>
+      <c r="D24" s="13"/>
       <c r="E24" s="13" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F24" s="13">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G24" s="15"/>
       <c r="H24" s="16" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="16.5" thickBot="1">
@@ -1445,7 +1454,9 @@
         <v>7</v>
       </c>
       <c r="C25" s="14"/>
-      <c r="D25" s="13"/>
+      <c r="D25" s="13">
+        <v>4727</v>
+      </c>
       <c r="E25" s="13" t="s">
         <v>8</v>
       </c>
@@ -1454,7 +1465,7 @@
       </c>
       <c r="G25" s="15"/>
       <c r="H25" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="16.5" thickBot="1">
@@ -1465,18 +1476,16 @@
         <v>7</v>
       </c>
       <c r="C26" s="14"/>
-      <c r="D26" s="13">
-        <v>4729</v>
-      </c>
+      <c r="D26" s="13"/>
       <c r="E26" s="13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F26" s="13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G26" s="15"/>
       <c r="H26" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="16.5" thickBot="1">
@@ -1487,16 +1496,18 @@
         <v>7</v>
       </c>
       <c r="C27" s="14"/>
-      <c r="D27" s="13"/>
+      <c r="D27" s="13">
+        <v>4729</v>
+      </c>
       <c r="E27" s="13" t="s">
         <v>10</v>
       </c>
       <c r="F27" s="13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G27" s="15"/>
       <c r="H27" s="16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="16.5" thickBot="1">
@@ -1509,14 +1520,14 @@
       <c r="C28" s="14"/>
       <c r="D28" s="13"/>
       <c r="E28" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="F28" s="13">
+        <v>5</v>
       </c>
       <c r="G28" s="15"/>
       <c r="H28" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="16.5" thickBot="1">
@@ -1536,80 +1547,80 @@
       </c>
       <c r="G29" s="15"/>
       <c r="H29" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A30" s="12"/>
-      <c r="B30" s="13"/>
+      <c r="A30" s="12">
+        <v>2</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>7</v>
+      </c>
       <c r="C30" s="14"/>
       <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
+      <c r="E30" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="G30" s="15"/>
-      <c r="H30" s="16"/>
+      <c r="H30" s="16" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="31" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A31" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>7</v>
-      </c>
+      <c r="A31" s="12"/>
+      <c r="B31" s="13"/>
       <c r="C31" s="14"/>
       <c r="D31" s="13"/>
-      <c r="E31" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>13</v>
-      </c>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
       <c r="G31" s="15"/>
-      <c r="H31" s="16" t="s">
-        <v>43</v>
-      </c>
+      <c r="H31" s="16"/>
     </row>
     <row r="32" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="19"/>
+      <c r="B32" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="14"/>
       <c r="D32" s="13"/>
       <c r="E32" s="13" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="F32" s="13" t="s">
         <v>13</v>
       </c>
       <c r="G32" s="15"/>
       <c r="H32" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A33" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="19"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="15"/>
+      <c r="H33" s="16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A33" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B33" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="21"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" s="23"/>
-      <c r="H33" s="24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
+    <row r="34" spans="1:8" ht="32.25" customHeight="1" thickBot="1">
       <c r="A34" s="20" t="s">
         <v>15</v>
       </c>
@@ -1621,33 +1632,53 @@
       <c r="E34" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F34" s="22"/>
+      <c r="F34" s="22" t="s">
+        <v>13</v>
+      </c>
       <c r="G34" s="23"/>
       <c r="H34" s="24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A35" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="21"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="22"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="24" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A35" s="25" t="s">
+    <row r="36" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A36" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="26"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27" t="s">
+      <c r="B36" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="26"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="F35" s="27" t="s">
+      <c r="F36" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="G35" s="28"/>
-      <c r="H35" s="29" t="s">
+      <c r="G36" s="28"/>
+      <c r="H36" s="29" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15.75" thickTop="1"/>
+    <row r="37" spans="1:8" ht="15.75" thickTop="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>

--- a/cagrid-1-0/Documentation/management/osu/security-vision-scope.xlsx
+++ b/cagrid-1-0/Documentation/management/osu/security-vision-scope.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="56">
   <si>
     <t>Release</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t>Implement a CAS plugin for the Authentication Service.</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -957,10 +960,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1189,7 +1192,7 @@
         <v>9</v>
       </c>
       <c r="F11" s="9">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="11" t="s">
@@ -1287,7 +1290,7 @@
         <v>8</v>
       </c>
       <c r="F16" s="9">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="11" t="s">
@@ -1511,28 +1514,18 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A28" s="12">
-        <v>2</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>7</v>
-      </c>
+      <c r="A28" s="12"/>
+      <c r="B28" s="13"/>
       <c r="C28" s="14"/>
       <c r="D28" s="13"/>
-      <c r="E28" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="13">
-        <v>5</v>
-      </c>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
       <c r="G28" s="15"/>
-      <c r="H28" s="16" t="s">
-        <v>39</v>
-      </c>
+      <c r="H28" s="16"/>
     </row>
     <row r="29" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A29" s="12">
-        <v>2</v>
+      <c r="A29" s="12" t="s">
+        <v>55</v>
       </c>
       <c r="B29" s="13" t="s">
         <v>7</v>
@@ -1540,19 +1533,19 @@
       <c r="C29" s="14"/>
       <c r="D29" s="13"/>
       <c r="E29" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="F29" s="13">
+        <v>5</v>
       </c>
       <c r="G29" s="15"/>
       <c r="H29" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A30" s="12">
-        <v>2</v>
+      <c r="A30" s="12" t="s">
+        <v>55</v>
       </c>
       <c r="B30" s="13" t="s">
         <v>7</v>
@@ -1567,80 +1560,80 @@
       </c>
       <c r="G30" s="15"/>
       <c r="H30" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A31" s="12"/>
-      <c r="B31" s="13"/>
+      <c r="A31" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>7</v>
+      </c>
       <c r="C31" s="14"/>
       <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
+      <c r="E31" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="G31" s="15"/>
-      <c r="H31" s="16"/>
+      <c r="H31" s="16" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="32" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A32" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>7</v>
-      </c>
+      <c r="A32" s="12"/>
+      <c r="B32" s="13"/>
       <c r="C32" s="14"/>
       <c r="D32" s="13"/>
-      <c r="E32" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>13</v>
-      </c>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
       <c r="G32" s="15"/>
-      <c r="H32" s="16" t="s">
-        <v>43</v>
-      </c>
+      <c r="H32" s="16"/>
     </row>
     <row r="33" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="19"/>
+      <c r="B33" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="14"/>
       <c r="D33" s="13"/>
       <c r="E33" s="13" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="F33" s="13" t="s">
         <v>13</v>
       </c>
       <c r="G33" s="15"/>
       <c r="H33" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A34" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="19"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="15"/>
+      <c r="H34" s="16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A34" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="21"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" s="23"/>
-      <c r="H34" s="24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
+    <row r="35" spans="1:8" ht="32.25" customHeight="1" thickBot="1">
       <c r="A35" s="20" t="s">
         <v>15</v>
       </c>
@@ -1652,33 +1645,53 @@
       <c r="E35" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F35" s="22"/>
+      <c r="F35" s="22" t="s">
+        <v>13</v>
+      </c>
       <c r="G35" s="23"/>
       <c r="H35" s="24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A36" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="21"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="22"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="24" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A36" s="25" t="s">
+    <row r="37" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A37" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="26"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27" t="s">
+      <c r="B37" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="26"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="F36" s="27" t="s">
+      <c r="F37" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="G36" s="28"/>
-      <c r="H36" s="29" t="s">
+      <c r="G37" s="28"/>
+      <c r="H37" s="29" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15.75" thickTop="1"/>
+    <row r="38" spans="1:8" ht="15.75" thickTop="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>

--- a/cagrid-1-0/Documentation/management/osu/security-vision-scope.xlsx
+++ b/cagrid-1-0/Documentation/management/osu/security-vision-scope.xlsx
@@ -963,7 +963,7 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1130,7 +1130,7 @@
         <v>9</v>
       </c>
       <c r="F8" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="11" t="s">

--- a/cagrid-1-0/Documentation/management/osu/security-vision-scope.xlsx
+++ b/cagrid-1-0/Documentation/management/osu/security-vision-scope.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="56">
   <si>
     <t>Release</t>
   </si>
@@ -963,7 +963,7 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1174,7 +1174,9 @@
       <c r="F10" s="9">
         <v>5</v>
       </c>
-      <c r="G10" s="10"/>
+      <c r="G10" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="H10" s="11" t="s">
         <v>33</v>
       </c>
@@ -1216,7 +1218,9 @@
       <c r="F12" s="9">
         <v>2</v>
       </c>
-      <c r="G12" s="10"/>
+      <c r="G12" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="H12" s="11" t="s">
         <v>45</v>
       </c>
